--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shakh\OneDrive\Документы\GitHub\Uzpar-Oylik\myproject\telegram_bot\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Phone</t>
   </si>
@@ -34,9 +42,6 @@
     <t>Parol</t>
   </si>
   <si>
-    <t>BahSh</t>
-  </si>
-  <si>
     <t>41wy7d</t>
   </si>
   <si>
@@ -51,27 +56,17 @@
   <si>
     <t>Qwerty</t>
   </si>
+  <si>
+    <t>Bahronov Shaxriyor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -115,52 +110,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -362,7 +406,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -381,7 +425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -411,7 +455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -437,7 +481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -463,7 +507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -489,7 +533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -515,7 +559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -541,7 +585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -567,7 +611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -593,7 +637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,9 +676,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -651,7 +701,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -670,7 +720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -696,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -748,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,9 +967,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -933,7 +989,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -952,7 +1008,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,60 +1259,72 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.67188" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>998997052366</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>7</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3">
         <v>2134322</v>
@@ -1268,19 +1336,18 @@
         <v>2423</v>
       </c>
       <c r="F2" s="3">
-        <f>C2-D2-E2</f>
         <v>2131899</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>8</v>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>998997055326</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>324324</v>
@@ -1292,19 +1359,18 @@
         <v>324234</v>
       </c>
       <c r="F3" s="3">
-        <f>C3-D3-E3</f>
         <v>90</v>
       </c>
       <c r="G3" s="3">
         <v>1234</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>998914324354</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>5334534</v>
@@ -1316,19 +1382,18 @@
         <v>325345</v>
       </c>
       <c r="F4" s="3">
-        <f>C4-D4-E4</f>
         <v>5008847</v>
       </c>
       <c r="G4" s="3">
         <v>4321</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>998914076350</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>11</v>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>2000000</v>
@@ -1342,11 +1407,11 @@
       <c r="F5" s="3">
         <v>1300000</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>12</v>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1355,7 +1420,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1364,7 +1429,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1373,7 +1438,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1382,7 +1447,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1393,7 +1458,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vazifalar\Upwork + WORK\UzparAvtotrans OYLIK\2\myproject\telegram_bot\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFEA04-D4E2-44A7-96D8-1D07B7CEC8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Phone</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Salary</t>
   </si>
   <si>
     <t>Saqlash</t>
@@ -31,47 +48,31 @@
     <t>Astatka</t>
   </si>
   <si>
-    <t>Parol</t>
+    <t>Bahronov Shaxriyor</t>
   </si>
   <si>
-    <t>BahSh</t>
+    <t>The There</t>
   </si>
   <si>
-    <t>41wy7d</t>
+    <t>Rakhmatov Olim</t>
   </si>
   <si>
-    <t>TheQ</t>
+    <t>Makhbuba Shukhratova</t>
   </si>
   <si>
-    <t>TYUHQ</t>
+    <t>TYU HQ</t>
   </si>
   <si>
-    <t>Olim</t>
-  </si>
-  <si>
-    <t>Qwerty</t>
+    <t>Oylik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -100,67 +101,121 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -362,7 +417,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -381,7 +436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -411,7 +466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -437,7 +492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -463,7 +518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -489,7 +544,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -515,7 +570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -541,7 +596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -567,7 +622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -593,7 +648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,9 +687,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -651,7 +712,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -670,7 +731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -696,7 +757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -748,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,9 +978,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -933,7 +1000,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -952,7 +1019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,197 +1270,260 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.67188" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>998997052366</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C2" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="7">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3200000</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>998997055326</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="7">
+        <v>324324</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>324234</v>
+      </c>
+      <c r="F3" s="7">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="3">
-        <v>998997052366</v>
-      </c>
-      <c r="B2" t="s" s="2">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>998914324354</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5334534</v>
+      </c>
+      <c r="D4" s="7">
+        <v>342</v>
+      </c>
+      <c r="E4" s="7">
+        <v>325345</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5008847</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>998914076350</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>2134322</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2423</v>
-      </c>
-      <c r="F2" s="3">
-        <f>C2-D2-E2</f>
-        <v>2131899</v>
-      </c>
-      <c r="G2" t="s" s="2">
+      <c r="C5" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="7">
+        <v>400000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1300000</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>998914155527</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="8">
+        <v>123321</v>
+      </c>
+      <c r="D6" s="8">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="3">
-        <v>998997055326</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>324324</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>324234</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3-D3-E3</f>
-        <v>90</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1234</v>
-      </c>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="3">
-        <v>998914324354</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5334534</v>
-      </c>
-      <c r="D4" s="3">
-        <v>342</v>
-      </c>
-      <c r="E4" s="3">
-        <v>325345</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4-D4-E4</f>
-        <v>5008847</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4321</v>
-      </c>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="3">
-        <v>998914076350</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>400000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1300000</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -1,37 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vazifalar\Upwork + WORK\UzparAvtotrans OYLIK\2\myproject\telegram_bot\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shakh\OneDrive\Документы\GitHub\Uzpar-Oylik\myproject\telegram_bot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFEA04-D4E2-44A7-96D8-1D07B7CEC8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Phone</t>
   </si>
@@ -48,36 +36,113 @@
     <t>Astatka</t>
   </si>
   <si>
+    <t>Oylik</t>
+  </si>
+  <si>
+    <t>Bo'linma</t>
+  </si>
+  <si>
+    <t>Lavozim</t>
+  </si>
+  <si>
+    <t>пенсионер</t>
+  </si>
+  <si>
+    <t>слесарь по ремонту автомобилей 3 разряд</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>слесарь по ремонту автомобилей 2 разряд</t>
+  </si>
+  <si>
+    <t>Пенсионеры</t>
+  </si>
+  <si>
+    <t>АК-5 (Алат)</t>
+  </si>
+  <si>
+    <t>Карбюратор РММ</t>
+  </si>
+  <si>
+    <t>АК-2 Дизель</t>
+  </si>
+  <si>
+    <t>Premiya</t>
+  </si>
+  <si>
+    <t>Visluga</t>
+  </si>
+  <si>
+    <t>Pitaniy</t>
+  </si>
+  <si>
+    <t>RayonK</t>
+  </si>
+  <si>
+    <t>Nalog</t>
+  </si>
+  <si>
+    <t>Vznos</t>
+  </si>
+  <si>
+    <t>Namozov Nazir</t>
+  </si>
+  <si>
+    <t>AK - 1</t>
+  </si>
+  <si>
+    <t>Buxgalter</t>
+  </si>
+  <si>
+    <t>Baxshullayev Doniyor</t>
+  </si>
+  <si>
+    <t>Safarov Haqberdi</t>
+  </si>
+  <si>
+    <t>Bo'lim boshlig'i</t>
+  </si>
+  <si>
     <t>Bahronov Shaxriyor</t>
   </si>
   <si>
     <t>The There</t>
   </si>
   <si>
+    <t>TYU HQ</t>
+  </si>
+  <si>
     <t>Rakhmatov Olim</t>
   </si>
   <si>
     <t>Makhbuba Shukhratova</t>
-  </si>
-  <si>
-    <t>TYU HQ</t>
-  </si>
-  <si>
-    <t>Oylik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +153,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,23 +186,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1288,11 +1395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1301,224 +1408,478 @@
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>998997052366</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3200000</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10">
+        <v>980000</v>
+      </c>
+      <c r="J2" s="11">
+        <v>348396</v>
+      </c>
+      <c r="K2" s="12">
+        <v>636975</v>
+      </c>
+      <c r="L2" s="14">
+        <v>216776</v>
+      </c>
+      <c r="M2" s="16">
+        <v>391923.24</v>
+      </c>
+      <c r="N2" s="18">
+        <v>32660.27</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>998997055326</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>324324</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>324234</v>
+      </c>
+      <c r="F3" s="4">
+        <v>90</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="18">
+        <v>980000</v>
+      </c>
+      <c r="J3" s="18">
+        <v>214644</v>
+      </c>
+      <c r="K3" s="12">
+        <v>469350.32</v>
+      </c>
+      <c r="L3" s="13">
+        <v>123321</v>
+      </c>
+      <c r="M3" s="18">
+        <v>227934.37</v>
+      </c>
+      <c r="N3" s="18">
+        <v>11946.44</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>998914324354</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5334534</v>
+      </c>
+      <c r="D4" s="4">
+        <v>342</v>
+      </c>
+      <c r="E4" s="4">
+        <v>325345</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5008847</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I4" s="10">
+        <v>980000</v>
+      </c>
+      <c r="J4" s="11">
+        <v>214644</v>
+      </c>
+      <c r="K4" s="12">
+        <v>469350.32</v>
+      </c>
+      <c r="L4" s="13">
+        <v>14452</v>
+      </c>
+      <c r="M4" s="16">
+        <v>227934.37</v>
+      </c>
+      <c r="N4" s="18">
+        <v>11946.44</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>998997052366</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9">
-        <v>4000000</v>
-      </c>
-      <c r="D2" s="9">
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>998914076350</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="D5" s="4">
         <v>300000</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E5" s="4">
+        <v>400000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10">
+        <v>980000</v>
+      </c>
+      <c r="J5" s="11">
+        <v>508546</v>
+      </c>
+      <c r="K5" s="12">
+        <v>469350.32</v>
+      </c>
+      <c r="L5" s="14">
+        <v>198000</v>
+      </c>
+      <c r="M5" s="16">
+        <v>596222.14</v>
+      </c>
+      <c r="N5" s="18">
+        <v>49685.18</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>998914155527</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>123321</v>
+      </c>
+      <c r="D6" s="5">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>32</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="18">
+        <v>980000</v>
+      </c>
+      <c r="J6" s="18">
+        <v>214644</v>
+      </c>
+      <c r="K6" s="12">
+        <v>469350.32</v>
+      </c>
+      <c r="L6" s="18">
+        <v>216776</v>
+      </c>
+      <c r="M6" s="18">
+        <v>227934.37</v>
+      </c>
+      <c r="N6" s="18">
+        <v>49685.18</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>998973036700</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="D7" s="6">
         <v>500000</v>
       </c>
-      <c r="F2" s="9">
-        <v>3200000</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="E7" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4500000</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="19">
+        <v>980000</v>
+      </c>
+      <c r="J7" s="19">
+        <v>508456</v>
+      </c>
+      <c r="K7" s="12">
+        <v>875000</v>
+      </c>
+      <c r="L7" s="13">
+        <v>854333</v>
+      </c>
+      <c r="M7" s="15">
+        <v>564452.12</v>
+      </c>
+      <c r="N7" s="18">
+        <v>49685.18</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>998997055326</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7">
-        <v>324324</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>324234</v>
-      </c>
-      <c r="F3" s="7">
-        <v>90</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>998941207010</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4500000</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="19">
+        <v>980000</v>
+      </c>
+      <c r="J8" s="19">
+        <v>508456</v>
+      </c>
+      <c r="K8" s="12">
+        <v>875000</v>
+      </c>
+      <c r="L8" s="17">
+        <v>854333</v>
+      </c>
+      <c r="M8" s="17">
+        <v>564452.12</v>
+      </c>
+      <c r="N8" s="18">
+        <v>49685.18</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>998914324354</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7">
-        <v>5334534</v>
-      </c>
-      <c r="D4" s="7">
-        <v>342</v>
-      </c>
-      <c r="E4" s="7">
-        <v>325345</v>
-      </c>
-      <c r="F4" s="7">
-        <v>5008847</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>998973073393</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="D9" s="6">
+        <v>500000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4500000</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="19">
+        <v>980000</v>
+      </c>
+      <c r="J9" s="19">
+        <v>508456</v>
+      </c>
+      <c r="K9" s="12">
+        <v>875000</v>
+      </c>
+      <c r="L9" s="17">
+        <v>854333</v>
+      </c>
+      <c r="M9" s="17">
+        <v>564452.12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>49685.18</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>998914076350</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="D5" s="7">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="7">
-        <v>400000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1300000</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>998914155527</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
-        <v>123321</v>
-      </c>
-      <c r="D6" s="8">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
     </row>
   </sheetData>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Phone</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Lavozim</t>
   </si>
   <si>
-    <t>пенсионер</t>
-  </si>
-  <si>
     <t>слесарь по ремонту автомобилей 3 разряд</t>
   </si>
   <si>
@@ -87,37 +84,37 @@
     <t>Vznos</t>
   </si>
   <si>
-    <t>Namozov Nazir</t>
-  </si>
-  <si>
     <t>AK - 1</t>
   </si>
   <si>
     <t>Buxgalter</t>
   </si>
   <si>
-    <t>Baxshullayev Doniyor</t>
-  </si>
-  <si>
-    <t>Safarov Haqberdi</t>
-  </si>
-  <si>
     <t>Bo'lim boshlig'i</t>
   </si>
   <si>
     <t>Bahronov Shaxriyor</t>
   </si>
   <si>
-    <t>The There</t>
-  </si>
-  <si>
-    <t>TYU HQ</t>
-  </si>
-  <si>
-    <t>Rakhmatov Olim</t>
-  </si>
-  <si>
-    <t>Makhbuba Shukhratova</t>
+    <t>Baxshullayev Doniyor 123</t>
+  </si>
+  <si>
+    <t>Safarov Haqberdi 123</t>
+  </si>
+  <si>
+    <t>Rakhmatov Olim Raupovich</t>
+  </si>
+  <si>
+    <t>TYU HQ 14</t>
+  </si>
+  <si>
+    <t>Namozov Nazir Niyazovich</t>
+  </si>
+  <si>
+    <t>The Ther 2</t>
+  </si>
+  <si>
+    <t>Makhbuba Shukhratova Jamshid qizi</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1407,8 +1404,7 @@
     <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
@@ -1440,22 +1436,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
@@ -1468,7 +1464,7 @@
         <v>998997052366</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6">
         <v>4000000</v>
@@ -1483,22 +1479,22 @@
         <v>3200000</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I2" s="10">
-        <v>980000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="11">
-        <v>348396</v>
+        <v>0</v>
       </c>
       <c r="K2" s="12">
         <v>636975</v>
       </c>
       <c r="L2" s="14">
-        <v>216776</v>
+        <v>0</v>
       </c>
       <c r="M2" s="16">
         <v>391923.24</v>
@@ -1517,7 +1513,7 @@
         <v>998997055326</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4">
         <v>324324</v>
@@ -1532,10 +1528,10 @@
         <v>90</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="18">
         <v>980000</v>
@@ -1566,7 +1562,7 @@
         <v>998914324354</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>5334534</v>
@@ -1581,10 +1577,10 @@
         <v>5008847</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="10">
         <v>980000</v>
@@ -1615,7 +1611,7 @@
         <v>998914076350</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4">
         <v>2000000</v>
@@ -1630,10 +1626,10 @@
         <v>1300000</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="10">
         <v>980000</v>
@@ -1664,7 +1660,7 @@
         <v>998914155527</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5">
         <v>123321</v>
@@ -1679,10 +1675,10 @@
         <v>32</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="18">
         <v>980000</v>
@@ -1713,7 +1709,7 @@
         <v>998973036700</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6">
         <v>8000000</v>
@@ -1728,10 +1724,10 @@
         <v>4500000</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="19">
         <v>980000</v>
@@ -1777,10 +1773,10 @@
         <v>4500000</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="19">
         <v>980000</v>
@@ -1826,10 +1822,10 @@
         <v>4500000</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="I9" s="19">
         <v>980000</v>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -14,37 +14,16 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Saqlash</t>
-  </si>
-  <si>
-    <t>Avans</t>
-  </si>
-  <si>
-    <t>Astatka</t>
-  </si>
-  <si>
-    <t>Oylik</t>
-  </si>
-  <si>
-    <t>Bo'linma</t>
-  </si>
-  <si>
-    <t>Lavozim</t>
-  </si>
-  <si>
     <t>слесарь по ремонту автомобилей 3 разряд</t>
   </si>
   <si>
@@ -66,24 +45,6 @@
     <t>АК-2 Дизель</t>
   </si>
   <si>
-    <t>Premiya</t>
-  </si>
-  <si>
-    <t>Visluga</t>
-  </si>
-  <si>
-    <t>Pitaniy</t>
-  </si>
-  <si>
-    <t>RayonK</t>
-  </si>
-  <si>
-    <t>Nalog</t>
-  </si>
-  <si>
-    <t>Vznos</t>
-  </si>
-  <si>
     <t>AK - 1</t>
   </si>
   <si>
@@ -93,35 +54,112 @@
     <t>Bo'lim boshlig'i</t>
   </si>
   <si>
-    <t>Bahronov Shaxriyor</t>
-  </si>
-  <si>
-    <t>Baxshullayev Doniyor 123</t>
-  </si>
-  <si>
-    <t>Safarov Haqberdi 123</t>
-  </si>
-  <si>
-    <t>Rakhmatov Olim Raupovich</t>
-  </si>
-  <si>
-    <t>TYU HQ 14</t>
-  </si>
-  <si>
-    <t>Namozov Nazir Niyazovich</t>
-  </si>
-  <si>
-    <t>The Ther 2</t>
-  </si>
-  <si>
-    <t>Makhbuba Shukhratova Jamshid qizi</t>
+    <t>Часовой тариф</t>
+  </si>
+  <si>
+    <t>Гос. Праздник</t>
+  </si>
+  <si>
+    <t>Оклад</t>
+  </si>
+  <si>
+    <t>Оклад за ремонт</t>
+  </si>
+  <si>
+    <t>Классност</t>
+  </si>
+  <si>
+    <t>Материалный помош</t>
+  </si>
+  <si>
+    <t>Отпуск</t>
+  </si>
+  <si>
+    <t>Отпуск (дополн.)</t>
+  </si>
+  <si>
+    <t>Отпуск (доп)</t>
+  </si>
+  <si>
+    <t>Абдиев Абдинаби</t>
+  </si>
+  <si>
+    <t>Абдиев Зафар Умурзакович</t>
+  </si>
+  <si>
+    <t>Абдиев Саид Рустамович</t>
+  </si>
+  <si>
+    <t>Абдиев Чори Юлдошевич</t>
+  </si>
+  <si>
+    <t>Абдикадиров Батырхан Камарович</t>
+  </si>
+  <si>
+    <t>Абдукадиров Уктам Абдузоирович</t>
+  </si>
+  <si>
+    <t>Абдуллаев Жура</t>
+  </si>
+  <si>
+    <t>Абдуллаев Ибодулло Садуллоевич</t>
+  </si>
+  <si>
+    <t>Сотрудник</t>
+  </si>
+  <si>
+    <t>Всего
+начислено</t>
+  </si>
+  <si>
+    <t>Всего
+удержано</t>
+  </si>
+  <si>
+    <t>К выплату</t>
+  </si>
+  <si>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Выслугу лет (018)</t>
+  </si>
+  <si>
+    <t>Месячная премия (040)</t>
+  </si>
+  <si>
+    <t>Премия (Командировочные) (063)</t>
+  </si>
+  <si>
+    <t>Премия о стим. раб. (064)</t>
+  </si>
+  <si>
+    <t>Материальная помощь к отпуску (110)</t>
+  </si>
+  <si>
+    <t>Районный коэффициент (100)</t>
+  </si>
+  <si>
+    <t>Питание (Доплата за питание) (067)</t>
+  </si>
+  <si>
+    <t>Подоходный налог (001)</t>
+  </si>
+  <si>
+    <t>Взносы в профсоюз (003)</t>
+  </si>
+  <si>
+    <t>Взнос</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -133,6 +171,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -187,11 +239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -231,6 +281,28 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1393,494 +1465,807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="8.85546875" style="1"/>
+    <col min="20" max="21" width="11" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:29" s="20" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+    </row>
+    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>998997052366</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3200000</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>10858.38</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>636975</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <v>391923.24</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>32660.27</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>998997055326</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>324324</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>90</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H3" s="16">
+        <v>980000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>214644</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>469350.32</v>
+      </c>
+      <c r="W3" s="11">
+        <v>123321</v>
+      </c>
+      <c r="X3" s="16">
+        <v>227934.37</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>11946.44</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>998914324354</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5334534</v>
+      </c>
+      <c r="D4" s="2">
+        <v>342</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5008847</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H4" s="8">
+        <v>980000</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>214644</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>469350.32</v>
+      </c>
+      <c r="W4" s="11">
+        <v>14452</v>
+      </c>
+      <c r="X4" s="14">
+        <v>227934.37</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>11946.44</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>998914076350</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="H5" s="8">
+        <v>980000</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>508546</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>469350.32</v>
+      </c>
+      <c r="W5" s="12">
+        <v>198000</v>
+      </c>
+      <c r="X5" s="14">
+        <v>596222.14</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>49685.18</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>998914155527</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>123321</v>
+      </c>
+      <c r="D6" s="3">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>980000</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>214644</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>324</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>469350.32</v>
+      </c>
+      <c r="W6" s="16">
+        <v>216776</v>
+      </c>
+      <c r="X6" s="16">
+        <v>227934.37</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>49685.18</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>234</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>998997052366</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="D2" s="6">
-        <v>300000</v>
-      </c>
-      <c r="E2" s="4">
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>998973036700</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="D7" s="4">
         <v>500000</v>
       </c>
-      <c r="F2" s="6">
-        <v>3200000</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>636975</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-      <c r="M2" s="16">
-        <v>391923.24</v>
-      </c>
-      <c r="N2" s="18">
-        <v>32660.27</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="E7" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="17">
+        <v>980000</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>508456</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>875000</v>
+      </c>
+      <c r="W7" s="11">
+        <v>854333</v>
+      </c>
+      <c r="X7" s="13">
+        <v>564452.12</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>49685.18</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
     </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>998997055326</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
-        <v>324324</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>324234</v>
-      </c>
-      <c r="F3" s="4">
-        <v>90</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
+    <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>998941207010</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="18">
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="17">
         <v>980000</v>
       </c>
-      <c r="J3" s="18">
-        <v>214644</v>
-      </c>
-      <c r="K3" s="12">
-        <v>469350.32</v>
-      </c>
-      <c r="L3" s="13">
-        <v>123321</v>
-      </c>
-      <c r="M3" s="18">
-        <v>227934.37</v>
-      </c>
-      <c r="N3" s="18">
-        <v>11946.44</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>508456</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>875000</v>
+      </c>
+      <c r="W8" s="15">
+        <v>854333</v>
+      </c>
+      <c r="X8" s="15">
+        <v>564452.12</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>49685.18</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>998914324354</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5334534</v>
-      </c>
-      <c r="D4" s="4">
-        <v>342</v>
-      </c>
-      <c r="E4" s="4">
-        <v>325345</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5008847</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="10">
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>998973073393</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17">
         <v>980000</v>
       </c>
-      <c r="J4" s="11">
-        <v>214644</v>
-      </c>
-      <c r="K4" s="12">
-        <v>469350.32</v>
-      </c>
-      <c r="L4" s="13">
-        <v>14452</v>
-      </c>
-      <c r="M4" s="16">
-        <v>227934.37</v>
-      </c>
-      <c r="N4" s="18">
-        <v>11946.44</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>508456</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>875000</v>
+      </c>
+      <c r="W9" s="15">
+        <v>854333</v>
+      </c>
+      <c r="X9" s="15">
+        <v>564452.12</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>49685.18</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>998914076350</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2000000</v>
-      </c>
-      <c r="D5" s="4">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="4">
-        <v>400000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1300000</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10">
-        <v>980000</v>
-      </c>
-      <c r="J5" s="11">
-        <v>508546</v>
-      </c>
-      <c r="K5" s="12">
-        <v>469350.32</v>
-      </c>
-      <c r="L5" s="14">
-        <v>198000</v>
-      </c>
-      <c r="M5" s="16">
-        <v>596222.14</v>
-      </c>
-      <c r="N5" s="18">
-        <v>49685.18</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>998914155527</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5">
-        <v>123321</v>
-      </c>
-      <c r="D6" s="5">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5">
-        <v>32</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="18">
-        <v>980000</v>
-      </c>
-      <c r="J6" s="18">
-        <v>214644</v>
-      </c>
-      <c r="K6" s="12">
-        <v>469350.32</v>
-      </c>
-      <c r="L6" s="18">
-        <v>216776</v>
-      </c>
-      <c r="M6" s="18">
-        <v>227934.37</v>
-      </c>
-      <c r="N6" s="18">
-        <v>49685.18</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>998973036700</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8000000</v>
-      </c>
-      <c r="D7" s="6">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4500000</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="19">
-        <v>980000</v>
-      </c>
-      <c r="J7" s="19">
-        <v>508456</v>
-      </c>
-      <c r="K7" s="12">
-        <v>875000</v>
-      </c>
-      <c r="L7" s="13">
-        <v>854333</v>
-      </c>
-      <c r="M7" s="15">
-        <v>564452.12</v>
-      </c>
-      <c r="N7" s="18">
-        <v>49685.18</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>998941207010</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6">
-        <v>8000000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>500000</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4500000</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="19">
-        <v>980000</v>
-      </c>
-      <c r="J8" s="19">
-        <v>508456</v>
-      </c>
-      <c r="K8" s="12">
-        <v>875000</v>
-      </c>
-      <c r="L8" s="17">
-        <v>854333</v>
-      </c>
-      <c r="M8" s="17">
-        <v>564452.12</v>
-      </c>
-      <c r="N8" s="18">
-        <v>49685.18</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>998973073393</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8000000</v>
-      </c>
-      <c r="D9" s="6">
-        <v>500000</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4500000</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="19">
-        <v>980000</v>
-      </c>
-      <c r="J9" s="19">
-        <v>508456</v>
-      </c>
-      <c r="K9" s="12">
-        <v>875000</v>
-      </c>
-      <c r="L9" s="17">
-        <v>854333</v>
-      </c>
-      <c r="M9" s="17">
-        <v>564452.12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>49685.18</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="2"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shakh\OneDrive\Документы\GitHub\Uzpar-Oylik\myproject\telegram_bot\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vazifalar\Upwork + WORK\UzparAvtotrans OYLIK\2\myproject\telegram_bot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68516F01-F875-4E91-88B6-7AE033F8928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1464,11 +1465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2180,9 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vazifalar\Upwork + WORK\UzparAvtotrans OYLIK\2\myproject\telegram_bot\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shakh\OneDrive\Документы\GitHub\Uzpar-Oylik\myproject\telegram_bot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68516F01-F875-4E91-88B6-7AE033F8928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -159,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -305,10 +304,12 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1465,11 +1466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1580,8 @@
         <v>20</v>
       </c>
       <c r="C2" s="4">
-        <v>4000000</v>
+        <f>SUM(H2:M2)</f>
+        <v>1339</v>
       </c>
       <c r="D2" s="4">
         <v>300000</v>
@@ -1594,16 +1596,14 @@
         <v>9</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>10858.38</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="I2" s="26">
+        <v>453</v>
+      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -1611,9 +1611,7 @@
       <c r="M2" s="9">
         <v>0</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5">
         <v>0</v>
       </c>
@@ -1667,8 +1665,9 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>90</v>
+      <c r="E3" s="27">
+        <f>H5+I5+I7+I2</f>
+        <v>980453</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
@@ -1747,8 +1746,9 @@
       <c r="C4" s="2">
         <v>5334534</v>
       </c>
-      <c r="D4" s="2">
-        <v>342</v>
+      <c r="D4" s="27">
+        <f>I5+I6+M6+M4</f>
+        <v>429333</v>
       </c>
       <c r="E4" s="2">
         <v>5008847</v>
@@ -1860,18 +1860,12 @@
       <c r="M5" s="9">
         <v>508546</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="5">
         <v>0</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5">
         <v>0</v>
       </c>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>Phone</t>
   </si>
@@ -52,33 +52,6 @@
   </si>
   <si>
     <t>Bo'lim boshlig'i</t>
-  </si>
-  <si>
-    <t>Часовой тариф</t>
-  </si>
-  <si>
-    <t>Гос. Праздник</t>
-  </si>
-  <si>
-    <t>Оклад</t>
-  </si>
-  <si>
-    <t>Оклад за ремонт</t>
-  </si>
-  <si>
-    <t>Классност</t>
-  </si>
-  <si>
-    <t>Материалный помош</t>
-  </si>
-  <si>
-    <t>Отпуск</t>
-  </si>
-  <si>
-    <t>Отпуск (дополн.)</t>
-  </si>
-  <si>
-    <t>Отпуск (доп)</t>
   </si>
   <si>
     <t>Абдиев Абдинаби</t>
@@ -152,14 +125,212 @@
     <t>Взносы в профсоюз (003)</t>
   </si>
   <si>
-    <t>Взнос</t>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Оклад/Тариф</t>
+  </si>
+  <si>
+    <t>О: 1 017 520,00</t>
+  </si>
+  <si>
+    <t>О: 968 760,00</t>
+  </si>
+  <si>
+    <t>Т: 8 662,63</t>
+  </si>
+  <si>
+    <t>Т: 5 434,14</t>
+  </si>
+  <si>
+    <t>О: 1 499 600,00</t>
+  </si>
+  <si>
+    <t>О: 1 167 480,00</t>
+  </si>
+  <si>
+    <t>Премия "Курбон Хайит"</t>
+  </si>
+  <si>
+    <t>Компенсация  при прекрашении трудового договора</t>
+  </si>
+  <si>
+    <t>Премия "Мустакиллик"</t>
+  </si>
+  <si>
+    <t>Матер/ная помощь пенсионерам и инвалидам</t>
+  </si>
+  <si>
+    <t>Приказ к дню Конституции</t>
+  </si>
+  <si>
+    <t>Премия к 8 марта ()</t>
+  </si>
+  <si>
+    <t>Увечье ()</t>
+  </si>
+  <si>
+    <t>Премия " Навруз" ()</t>
+  </si>
+  <si>
+    <t>Премия " 9 МАЯ " ()</t>
+  </si>
+  <si>
+    <t>Учеба  ()</t>
+  </si>
+  <si>
+    <t>Компенсация за неиспользованный отпуск ()</t>
+  </si>
+  <si>
+    <t>Больничный АУП ()</t>
+  </si>
+  <si>
+    <t>Оклад за дни ремонта (001)</t>
+  </si>
+  <si>
+    <t>Оклад (001)</t>
+  </si>
+  <si>
+    <t>Тариф (002)</t>
+  </si>
+  <si>
+    <t>Больничные (004)</t>
+  </si>
+  <si>
+    <t>Отпуск (005)</t>
+  </si>
+  <si>
+    <t>Отпуск дополнительный (006)</t>
+  </si>
+  <si>
+    <t>Ночные часы (010)</t>
+  </si>
+  <si>
+    <t>Надбавка % (013)</t>
+  </si>
+  <si>
+    <t>Классность (014)</t>
+  </si>
+  <si>
+    <t>Вредность (015)</t>
+  </si>
+  <si>
+    <t>Доплата за совмещение (025)</t>
+  </si>
+  <si>
+    <t>Мат. пом. на лечение (раздел 9 пункт 9.16 стац лечение) (026)</t>
+  </si>
+  <si>
+    <t>Материальная помощь по  (бракосочетание) (026)</t>
+  </si>
+  <si>
+    <t>Командировочные (030)</t>
+  </si>
+  <si>
+    <t>Единовременная премия к юбилею (033)</t>
+  </si>
+  <si>
+    <t>ПРЕМИЯ Руза хайит (033)</t>
+  </si>
+  <si>
+    <t>Премия исполнительному Органу АО "Узпаравтотранс" (040)</t>
+  </si>
+  <si>
+    <t>Выходные (040)</t>
+  </si>
+  <si>
+    <t>Премия по хоз деятельности (040)</t>
+  </si>
+  <si>
+    <t>Премия к празднику (045)</t>
+  </si>
+  <si>
+    <t>Приказ № наблюдат/совет (057)</t>
+  </si>
+  <si>
+    <t>Доплата участникам афганской войны (058)</t>
+  </si>
+  <si>
+    <t>Ремонт (060)</t>
+  </si>
+  <si>
+    <t>Суточные по лимиту (061)</t>
+  </si>
+  <si>
+    <t>Суточные  сверх лимита (064)</t>
+  </si>
+  <si>
+    <t>Декр. больничные (065)</t>
+  </si>
+  <si>
+    <t>Материальная помощь раздел Х пункт 9,4 (уход на пенсию) (066)</t>
+  </si>
+  <si>
+    <t>Материальная помощь в связи со смертью (068)</t>
+  </si>
+  <si>
+    <t>Юбиляры до 12минЗП (С1)</t>
+  </si>
+  <si>
+    <t>Удержание  по акту инвентаризации</t>
+  </si>
+  <si>
+    <t>Сог.справки ()</t>
+  </si>
+  <si>
+    <t>Удержание за приобретения ТМЦ ()</t>
+  </si>
+  <si>
+    <t>Страхование  жизни  ()</t>
+  </si>
+  <si>
+    <t>Удержание Страхование ()</t>
+  </si>
+  <si>
+    <t>Гос/пошлина ()</t>
+  </si>
+  <si>
+    <t>Алименты</t>
+  </si>
+  <si>
+    <t>Партийные взносы 0,5% (018)</t>
+  </si>
+  <si>
+    <t>Удержание за санаторные  путевки (024)</t>
+  </si>
+  <si>
+    <t>Удержание за проживание в гостинице (025)</t>
+  </si>
+  <si>
+    <t>Удержание за Сотовую связь (027)</t>
+  </si>
+  <si>
+    <t>Удержание за ГСМ (027)</t>
+  </si>
+  <si>
+    <t>Удержание за питание (029)</t>
+  </si>
+  <si>
+    <t>Удержание Ипотечный кредит (031)</t>
+  </si>
+  <si>
+    <t>Удержание За обучение (уменьшает НОБ) (031)</t>
+  </si>
+  <si>
+    <t>Удержание кредит (031)</t>
+  </si>
+  <si>
+    <t>Удержание спец.одежды (033)</t>
+  </si>
+  <si>
+    <t>Удержание согласно Акта проверки (035)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -190,8 +361,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +389,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,12 +425,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -252,12 +456,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -267,26 +465,8 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,8 +484,52 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1467,780 +1691,1697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:CU20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.85546875" style="1"/>
-    <col min="20" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="8.85546875" style="1"/>
+    <col min="22" max="23" width="11" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="20" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:99" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="AX1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="BE1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF1" s="30">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="30">
+        <v>2</v>
+      </c>
+      <c r="BH1" s="30">
+        <v>3</v>
+      </c>
+      <c r="BI1" s="30">
+        <v>4</v>
+      </c>
+      <c r="BJ1" s="30">
+        <v>5</v>
+      </c>
+      <c r="BK1" s="30">
+        <v>6</v>
+      </c>
+      <c r="BL1" s="30">
+        <v>7</v>
+      </c>
+      <c r="BM1" s="30">
+        <v>8</v>
+      </c>
+      <c r="BN1" s="30">
+        <v>9</v>
+      </c>
+      <c r="BO1" s="30">
+        <v>10</v>
+      </c>
+      <c r="BP1" s="31"/>
+      <c r="BQ1" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR1" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS1" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="BV1" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="BX1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="BY1" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA1" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC1" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD1" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="CF1" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG1" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH1" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="CJ1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK1" s="33">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="33">
+        <v>2</v>
+      </c>
+      <c r="CM1" s="33">
+        <v>3</v>
+      </c>
+      <c r="CN1" s="33">
+        <v>4</v>
+      </c>
+      <c r="CO1" s="33">
+        <v>5</v>
+      </c>
+      <c r="CP1" s="33">
+        <v>6</v>
+      </c>
+      <c r="CQ1" s="33">
+        <v>7</v>
+      </c>
+      <c r="CR1" s="33">
+        <v>8</v>
+      </c>
+      <c r="CS1" s="33">
+        <v>9</v>
+      </c>
+      <c r="CT1" s="33">
+        <v>10</v>
+      </c>
+      <c r="CU1" s="35"/>
+    </row>
+    <row r="2" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16">
+        <v>998997052366</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4">
+        <v>215983</v>
+      </c>
+      <c r="H2" s="18">
+        <v>21454.54</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3200000</v>
+      </c>
+      <c r="J2" s="4">
+        <v>300000</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3200000</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>10858.38</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>636975</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>391923.24</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>32660.27</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5">
+        <v>364</v>
+      </c>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5">
+        <v>36</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>57</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>457</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>47</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>45</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>67</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>34</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>6</v>
+      </c>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="5">
+        <v>3</v>
+      </c>
+      <c r="BR2" s="5">
+        <v>346</v>
+      </c>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5">
+        <v>346</v>
+      </c>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5">
+        <v>36</v>
+      </c>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5">
+        <v>65</v>
+      </c>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5">
+        <v>6</v>
+      </c>
+      <c r="CC2" s="5">
+        <v>457</v>
+      </c>
+      <c r="CD2" s="5">
+        <v>457</v>
+      </c>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5">
+        <v>47</v>
+      </c>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5">
+        <v>457</v>
+      </c>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="36"/>
+    </row>
+    <row r="3" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="C3" s="16">
+        <v>998997055326</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
+        <v>324324</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>980457.56700000004</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>90</v>
+      </c>
+      <c r="L3" s="10">
+        <v>980000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>214644</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>469350.32</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>123321</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>227934.37</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>11946.44</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5">
+        <v>346</v>
+      </c>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="36"/>
+    </row>
+    <row r="4" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="C4" s="16">
+        <v>998914324354</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5334534</v>
+      </c>
+      <c r="H4" s="18">
+        <v>4543</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5008847</v>
+      </c>
+      <c r="J4" s="2">
+        <v>342</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5008847</v>
+      </c>
+      <c r="L4" s="10">
+        <v>980000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>214644</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>469350.32</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>14452</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>227934.37</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>11946.44</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5">
+        <v>346</v>
+      </c>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5">
+        <v>346</v>
+      </c>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="36"/>
+    </row>
+    <row r="5" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="C5" s="16">
+        <v>998914076350</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>300000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="L5" s="10">
+        <v>980000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>508546</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>469350.32</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>198000</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>596222.14</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>49685.18</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5">
+        <v>564</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>346</v>
+      </c>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5">
+        <v>3463</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>46</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="5"/>
+      <c r="CQ5" s="5"/>
+      <c r="CR5" s="5"/>
+      <c r="CS5" s="5"/>
+      <c r="CT5" s="5"/>
+      <c r="CU5" s="36"/>
+    </row>
+    <row r="6" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="C6" s="16">
+        <v>998914155527</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3">
+        <v>123321</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2345</v>
+      </c>
+      <c r="I6" s="3">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3">
+        <v>32</v>
+      </c>
+      <c r="L6" s="10">
+        <v>980000</v>
+      </c>
+      <c r="M6" s="5">
+        <v>45</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>214644</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>324</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>469350.32</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>216776</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>227934.37</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>49685.18</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>234</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5">
+        <v>46</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5">
+        <v>456</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>1234</v>
+      </c>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5">
+        <v>346</v>
+      </c>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
+      <c r="CI6" s="5"/>
+      <c r="CJ6" s="5"/>
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="5"/>
+      <c r="CM6" s="5"/>
+      <c r="CN6" s="5"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="5"/>
+      <c r="CQ6" s="5"/>
+      <c r="CR6" s="5"/>
+      <c r="CS6" s="5"/>
+      <c r="CT6" s="5"/>
+      <c r="CU6" s="36"/>
+    </row>
+    <row r="7" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16">
+        <v>998973036700</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="18" t="s">
+      <c r="G7" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>500000</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="J7" s="4">
+        <v>500000</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="L7" s="11">
+        <v>980000</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>508456</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>875000</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>854333</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>564452.12</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>49685.18</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5">
+        <v>3426</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+      <c r="BX7" s="5"/>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="36"/>
+    </row>
+    <row r="8" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="C8" s="16">
+        <v>998941207010</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>500000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="J8" s="4">
+        <v>500000</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>980000</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>508456</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>875000</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>854333</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>564452.12</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>49685.18</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>32</v>
+      </c>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5">
+        <v>346</v>
+      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="5"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
+      <c r="CK8" s="5"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="5"/>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="5"/>
+      <c r="CR8" s="5"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="5"/>
+      <c r="CU8" s="36"/>
+    </row>
+    <row r="9" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="18" t="s">
+      <c r="C9" s="16">
+        <v>998973073393</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
+      <c r="G9" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="H9" s="4">
+        <v>500000</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="J9" s="4">
+        <v>500000</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="L9" s="11">
+        <v>980000</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>508456</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>875000</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>854333</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>564452.12</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>49685.18</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="5"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="5"/>
+      <c r="BW9" s="5"/>
+      <c r="BX9" s="5"/>
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5"/>
+      <c r="CJ9" s="5"/>
+      <c r="CK9" s="5"/>
+      <c r="CL9" s="5"/>
+      <c r="CM9" s="5"/>
+      <c r="CN9" s="5"/>
+      <c r="CO9" s="5"/>
+      <c r="CP9" s="5"/>
+      <c r="CQ9" s="5"/>
+      <c r="CR9" s="5"/>
+      <c r="CS9" s="5"/>
+      <c r="CT9" s="5"/>
+      <c r="CU9" s="36"/>
     </row>
-    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>998997052366</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4">
-        <f>SUM(H2:M2)</f>
-        <v>1339</v>
-      </c>
-      <c r="D2" s="4">
-        <v>300000</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3200000</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="8">
-        <v>544</v>
-      </c>
-      <c r="I2" s="26">
-        <v>453</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5">
-        <v>342</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10">
-        <v>636975</v>
-      </c>
-      <c r="W2" s="12">
-        <v>0</v>
-      </c>
-      <c r="X2" s="14">
-        <v>391923.24</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>32660.27</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>998997055326</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
-        <v>324324</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <f>H5+I5+I7+I2</f>
-        <v>980453</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16">
-        <v>980000</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>214644</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <v>469350.32</v>
-      </c>
-      <c r="W3" s="11">
-        <v>123321</v>
-      </c>
-      <c r="X3" s="16">
-        <v>227934.37</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>11946.44</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>998914324354</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5334534</v>
-      </c>
-      <c r="D4" s="27">
-        <f>I5+I6+M6+M4</f>
-        <v>429333</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5008847</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>980000</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>214644</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>469350.32</v>
-      </c>
-      <c r="W4" s="11">
-        <v>14452</v>
-      </c>
-      <c r="X4" s="14">
-        <v>227934.37</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>11946.44</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>998914076350</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1300000</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8">
-        <v>980000</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>508546</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10">
-        <v>469350.32</v>
-      </c>
-      <c r="W5" s="12">
-        <v>198000</v>
-      </c>
-      <c r="X5" s="14">
-        <v>596222.14</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>49685.18</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>998914155527</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3">
-        <v>123321</v>
-      </c>
-      <c r="D6" s="3">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="16">
-        <v>980000</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>214644</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>324</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10">
-        <v>469350.32</v>
-      </c>
-      <c r="W6" s="16">
-        <v>216776</v>
-      </c>
-      <c r="X6" s="16">
-        <v>227934.37</v>
-      </c>
-      <c r="Y6" s="16">
-        <v>49685.18</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>234</v>
-      </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>998973036700</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8000000</v>
-      </c>
-      <c r="D7" s="4">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4500000</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="17">
-        <v>980000</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
-        <v>508456</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10">
-        <v>875000</v>
-      </c>
-      <c r="W7" s="11">
-        <v>854333</v>
-      </c>
-      <c r="X7" s="13">
-        <v>564452.12</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>49685.18</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>998941207010</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8000000</v>
-      </c>
-      <c r="D8" s="4">
-        <v>500000</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4500000</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="17">
-        <v>980000</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>508456</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10">
-        <v>875000</v>
-      </c>
-      <c r="W8" s="15">
-        <v>854333</v>
-      </c>
-      <c r="X8" s="15">
-        <v>564452.12</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>49685.18</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>998973073393</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8000000</v>
-      </c>
-      <c r="D9" s="4">
-        <v>500000</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4500000</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="17">
-        <v>980000</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17">
-        <v>508456</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
-      <c r="V9" s="10">
-        <v>875000</v>
-      </c>
-      <c r="W9" s="15">
-        <v>854333</v>
-      </c>
-      <c r="X9" s="15">
-        <v>564452.12</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>49685.18</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2259,6 +3400,181 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="34"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="5"/>
+      <c r="CK10" s="5"/>
+      <c r="CL10" s="5"/>
+      <c r="CM10" s="5"/>
+      <c r="CN10" s="5"/>
+      <c r="CO10" s="5"/>
+      <c r="CP10" s="5"/>
+      <c r="CQ10" s="5"/>
+      <c r="CR10" s="5"/>
+      <c r="CS10" s="5"/>
+      <c r="CT10" s="5"/>
+      <c r="CU10" s="36"/>
+    </row>
+    <row r="11" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="CU11" s="37"/>
+    </row>
+    <row r="12" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="CU12" s="37"/>
+    </row>
+    <row r="13" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="CU13" s="37"/>
+    </row>
+    <row r="14" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="CU14" s="37"/>
+    </row>
+    <row r="15" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="CU15" s="37"/>
+    </row>
+    <row r="16" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>Phone</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Bo'lim boshlig'i</t>
   </si>
   <si>
-    <t>Абдиев Абдинаби</t>
-  </si>
-  <si>
     <t>Абдиев Зафар Умурзакович</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Абдуллаев Жура</t>
-  </si>
-  <si>
-    <t>Абдуллаев Ибодулло Садуллоевич</t>
   </si>
   <si>
     <t>Сотрудник</t>
@@ -324,13 +318,28 @@
   </si>
   <si>
     <t>Удержание согласно Акта проверки (035)</t>
+  </si>
+  <si>
+    <t>Ташева Махлиё Хамитовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начальник ОК </t>
+  </si>
+  <si>
+    <t>АУП</t>
+  </si>
+  <si>
+    <t>Bahronov Shaxriyor</t>
+  </si>
+  <si>
+    <t>Safarov Haqberdi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -358,14 +367,6 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -402,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -435,6 +436,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -512,24 +524,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1691,11 +1701,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CU20"/>
+  <dimension ref="A1:CJ20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1710,312 +1718,262 @@
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="21" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="8.85546875" style="1"/>
     <col min="22" max="23" width="11" style="1" customWidth="1"/>
     <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AN1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH1" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI1" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ1" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK1" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AW1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AN1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP1" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ1" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AX1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AY1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AZ1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AW1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="BE1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="BA1" s="29" t="s">
+      <c r="BF1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ1" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="BB1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE1" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF1" s="30">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="30">
-        <v>2</v>
-      </c>
-      <c r="BH1" s="30">
-        <v>3</v>
-      </c>
-      <c r="BI1" s="30">
-        <v>4</v>
-      </c>
-      <c r="BJ1" s="30">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="30">
-        <v>6</v>
-      </c>
-      <c r="BL1" s="30">
-        <v>7</v>
-      </c>
-      <c r="BM1" s="30">
-        <v>8</v>
-      </c>
-      <c r="BN1" s="30">
-        <v>9</v>
-      </c>
-      <c r="BO1" s="30">
-        <v>10</v>
-      </c>
-      <c r="BP1" s="31"/>
-      <c r="BQ1" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR1" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS1" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT1" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU1" s="32" t="s">
+      <c r="BN1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BV1" s="32" t="s">
+      <c r="BO1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="BW1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="BX1" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="BY1" s="32" t="s">
+      <c r="BP1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="32" t="s">
+      <c r="BQ1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="CA1" s="32" t="s">
+      <c r="BR1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="CB1" s="32" t="s">
+      <c r="BS1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="CC1" s="32" t="s">
+      <c r="BT1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="CD1" s="32" t="s">
+      <c r="BU1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="CE1" s="32" t="s">
+      <c r="BV1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="CF1" s="32" t="s">
+      <c r="BW1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="CG1" s="32" t="s">
+      <c r="BX1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="CH1" s="32" t="s">
+      <c r="BY1" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="CI1" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="CJ1" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK1" s="33">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="33">
-        <v>2</v>
-      </c>
-      <c r="CM1" s="33">
-        <v>3</v>
-      </c>
-      <c r="CN1" s="33">
-        <v>4</v>
-      </c>
-      <c r="CO1" s="33">
-        <v>5</v>
-      </c>
-      <c r="CP1" s="33">
-        <v>6</v>
-      </c>
-      <c r="CQ1" s="33">
-        <v>7</v>
-      </c>
-      <c r="CR1" s="33">
-        <v>8</v>
-      </c>
-      <c r="CS1" s="33">
-        <v>9</v>
-      </c>
-      <c r="CT1" s="33">
-        <v>10</v>
-      </c>
-      <c r="CU1" s="35"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="31"/>
+      <c r="CE1" s="31"/>
+      <c r="CF1" s="31"/>
+      <c r="CG1" s="31"/>
+      <c r="CH1" s="31"/>
+      <c r="CI1" s="31"/>
+      <c r="CJ1" s="32"/>
     </row>
-    <row r="2" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16">
         <v>998997052366</v>
@@ -2027,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4">
         <v>215983</v>
@@ -2039,10 +1997,10 @@
         <v>3200000</v>
       </c>
       <c r="J2" s="4">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
-        <v>3200000</v>
+        <v>0</v>
       </c>
       <c r="L2" s="10">
         <v>0</v>
@@ -2084,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <v>0</v>
+        <v>34635</v>
       </c>
       <c r="Z2" s="8">
         <v>636975</v>
       </c>
       <c r="AA2" s="10">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AB2" s="10">
         <v>391923.24</v>
@@ -2099,126 +2057,153 @@
         <v>32660.27</v>
       </c>
       <c r="AD2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>3456346</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>346356</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>365</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>346356</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>6456</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>3465</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>356</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>365</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>365</v>
+      </c>
       <c r="AQ2" s="5">
-        <v>364</v>
-      </c>
-      <c r="AR2" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>3456</v>
+      </c>
       <c r="AS2" s="5">
-        <v>34</v>
-      </c>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>346</v>
+      </c>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5">
+        <v>3465</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>363</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>3636</v>
+      </c>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>3636</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>34636</v>
+      </c>
+      <c r="BD2" s="5">
+        <v>3463</v>
+      </c>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5">
+        <v>3465</v>
+      </c>
+      <c r="BG2" s="5">
         <v>36</v>
       </c>
-      <c r="AV2" s="5">
-        <v>4</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>57</v>
-      </c>
-      <c r="AX2" s="5">
+      <c r="BH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="5">
+        <v>5675687</v>
+      </c>
+      <c r="BJ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="5">
+        <v>4567457</v>
+      </c>
+      <c r="BL2" s="5">
+        <v>476</v>
+      </c>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5">
+        <v>345</v>
+      </c>
+      <c r="BO2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="5">
+        <v>7568</v>
+      </c>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5">
         <v>457</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="BT2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="5">
         <v>47</v>
       </c>
-      <c r="AZ2" s="5">
-        <v>45</v>
-      </c>
-      <c r="BA2" s="5">
-        <v>67</v>
-      </c>
-      <c r="BB2" s="5">
-        <v>34</v>
-      </c>
-      <c r="BC2" s="5">
-        <v>6</v>
-      </c>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="5">
-        <v>3</v>
-      </c>
-      <c r="BR2" s="5">
-        <v>346</v>
-      </c>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5">
-        <v>346</v>
-      </c>
-      <c r="BU2" s="5"/>
       <c r="BV2" s="5">
-        <v>36</v>
+        <v>4778</v>
       </c>
       <c r="BW2" s="5"/>
       <c r="BX2" s="5">
-        <v>65</v>
-      </c>
-      <c r="BY2" s="5"/>
+        <v>457</v>
+      </c>
+      <c r="BY2" s="5">
+        <v>0</v>
+      </c>
       <c r="BZ2" s="5"/>
       <c r="CA2" s="5"/>
-      <c r="CB2" s="5">
-        <v>6</v>
-      </c>
-      <c r="CC2" s="5">
-        <v>457</v>
-      </c>
-      <c r="CD2" s="5">
-        <v>457</v>
-      </c>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
       <c r="CE2" s="5"/>
-      <c r="CF2" s="5">
-        <v>47</v>
-      </c>
+      <c r="CF2" s="5"/>
       <c r="CG2" s="5"/>
       <c r="CH2" s="5"/>
-      <c r="CI2" s="5">
-        <v>457</v>
-      </c>
-      <c r="CJ2" s="5"/>
-      <c r="CK2" s="5"/>
-      <c r="CL2" s="5"/>
-      <c r="CM2" s="5"/>
-      <c r="CN2" s="5"/>
-      <c r="CO2" s="5"/>
-      <c r="CP2" s="5"/>
-      <c r="CQ2" s="5"/>
-      <c r="CR2" s="5"/>
-      <c r="CS2" s="5"/>
-      <c r="CT2" s="5"/>
-      <c r="CU2" s="36"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="33"/>
     </row>
-    <row r="3" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16">
         <v>998997055326</v>
@@ -2230,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
         <v>324324</v>
@@ -2345,7 +2330,7 @@
       <c r="BM3" s="5"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
-      <c r="BP3" s="34"/>
+      <c r="BP3" s="5"/>
       <c r="BQ3" s="5"/>
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
@@ -2365,25 +2350,14 @@
       <c r="CG3" s="5"/>
       <c r="CH3" s="5"/>
       <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
-      <c r="CP3" s="5"/>
-      <c r="CQ3" s="5"/>
-      <c r="CR3" s="5"/>
-      <c r="CS3" s="5"/>
-      <c r="CT3" s="5"/>
-      <c r="CU3" s="36"/>
+      <c r="CJ3" s="33"/>
     </row>
-    <row r="4" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="16">
         <v>998914324354</v>
@@ -2395,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>5334534</v>
@@ -2510,7 +2484,7 @@
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
-      <c r="BP4" s="34"/>
+      <c r="BP4" s="5"/>
       <c r="BQ4" s="5"/>
       <c r="BR4" s="5"/>
       <c r="BS4" s="5"/>
@@ -2530,25 +2504,14 @@
       <c r="CG4" s="5"/>
       <c r="CH4" s="5"/>
       <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="36"/>
+      <c r="CJ4" s="33"/>
     </row>
-    <row r="5" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="16">
         <v>998914076350</v>
@@ -2560,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2">
         <v>2000000</v>
@@ -2681,7 +2644,7 @@
       <c r="BM5" s="5"/>
       <c r="BN5" s="5"/>
       <c r="BO5" s="5"/>
-      <c r="BP5" s="34"/>
+      <c r="BP5" s="5"/>
       <c r="BQ5" s="5"/>
       <c r="BR5" s="5"/>
       <c r="BS5" s="5"/>
@@ -2701,25 +2664,14 @@
       <c r="CG5" s="5"/>
       <c r="CH5" s="5"/>
       <c r="CI5" s="5"/>
-      <c r="CJ5" s="5"/>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="5"/>
-      <c r="CP5" s="5"/>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="5"/>
-      <c r="CS5" s="5"/>
-      <c r="CT5" s="5"/>
-      <c r="CU5" s="36"/>
+      <c r="CJ5" s="33"/>
     </row>
-    <row r="6" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="16">
         <v>998914155527</v>
@@ -2731,7 +2683,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3">
         <v>123321</v>
@@ -2852,7 +2804,7 @@
       <c r="BM6" s="5"/>
       <c r="BN6" s="5"/>
       <c r="BO6" s="5"/>
-      <c r="BP6" s="34"/>
+      <c r="BP6" s="5"/>
       <c r="BQ6" s="5"/>
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
@@ -2872,25 +2824,14 @@
       <c r="CG6" s="5"/>
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
-      <c r="CJ6" s="5"/>
-      <c r="CK6" s="5"/>
-      <c r="CL6" s="5"/>
-      <c r="CM6" s="5"/>
-      <c r="CN6" s="5"/>
-      <c r="CO6" s="5"/>
-      <c r="CP6" s="5"/>
-      <c r="CQ6" s="5"/>
-      <c r="CR6" s="5"/>
-      <c r="CS6" s="5"/>
-      <c r="CT6" s="5"/>
-      <c r="CU6" s="36"/>
+      <c r="CJ6" s="33"/>
     </row>
-    <row r="7" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="16">
         <v>998973036700</v>
@@ -2902,7 +2843,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4">
         <v>8000000</v>
@@ -3017,7 +2958,7 @@
       <c r="BM7" s="5"/>
       <c r="BN7" s="5"/>
       <c r="BO7" s="5"/>
-      <c r="BP7" s="34"/>
+      <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
       <c r="BR7" s="5"/>
       <c r="BS7" s="5"/>
@@ -3037,25 +2978,14 @@
       <c r="CG7" s="5"/>
       <c r="CH7" s="5"/>
       <c r="CI7" s="5"/>
-      <c r="CJ7" s="5"/>
-      <c r="CK7" s="5"/>
-      <c r="CL7" s="5"/>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
-      <c r="CO7" s="5"/>
-      <c r="CP7" s="5"/>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="5"/>
-      <c r="CS7" s="5"/>
-      <c r="CT7" s="5"/>
-      <c r="CU7" s="36"/>
+      <c r="CJ7" s="33"/>
     </row>
-    <row r="8" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="16">
         <v>998941207010</v>
@@ -3067,7 +2997,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="4">
         <v>8000000</v>
@@ -3180,7 +3110,7 @@
       <c r="BM8" s="5"/>
       <c r="BN8" s="5"/>
       <c r="BO8" s="5"/>
-      <c r="BP8" s="34"/>
+      <c r="BP8" s="5"/>
       <c r="BQ8" s="5"/>
       <c r="BR8" s="5"/>
       <c r="BS8" s="5"/>
@@ -3200,25 +3130,14 @@
       <c r="CG8" s="5"/>
       <c r="CH8" s="5"/>
       <c r="CI8" s="5"/>
-      <c r="CJ8" s="5"/>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="5"/>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="5"/>
-      <c r="CO8" s="5"/>
-      <c r="CP8" s="5"/>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="5"/>
-      <c r="CS8" s="5"/>
-      <c r="CT8" s="5"/>
-      <c r="CU8" s="36"/>
+      <c r="CJ8" s="33"/>
     </row>
-    <row r="9" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C9" s="16">
         <v>998973073393</v>
@@ -3230,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="4">
         <v>8000000</v>
@@ -3339,7 +3258,7 @@
       <c r="BM9" s="5"/>
       <c r="BN9" s="5"/>
       <c r="BO9" s="5"/>
-      <c r="BP9" s="34"/>
+      <c r="BP9" s="5"/>
       <c r="BQ9" s="5"/>
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
@@ -3359,30 +3278,39 @@
       <c r="CG9" s="5"/>
       <c r="CH9" s="5"/>
       <c r="CI9" s="5"/>
-      <c r="CJ9" s="5"/>
-      <c r="CK9" s="5"/>
-      <c r="CL9" s="5"/>
-      <c r="CM9" s="5"/>
-      <c r="CN9" s="5"/>
-      <c r="CO9" s="5"/>
-      <c r="CP9" s="5"/>
-      <c r="CQ9" s="5"/>
-      <c r="CR9" s="5"/>
-      <c r="CS9" s="5"/>
-      <c r="CT9" s="5"/>
-      <c r="CU9" s="36"/>
+      <c r="CJ9" s="33"/>
     </row>
-    <row r="10" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="28"/>
+    <row r="10" spans="1:88" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="36">
+        <v>998930840441</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5"/>
+      <c r="J10" s="3">
+        <v>235</v>
+      </c>
+      <c r="K10" s="3">
+        <v>345</v>
+      </c>
+      <c r="L10" s="5">
+        <v>235</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -3438,7 +3366,7 @@
       <c r="BM10" s="5"/>
       <c r="BN10" s="5"/>
       <c r="BO10" s="5"/>
-      <c r="BP10" s="34"/>
+      <c r="BP10" s="5"/>
       <c r="BQ10" s="5"/>
       <c r="BR10" s="5"/>
       <c r="BS10" s="5"/>
@@ -3458,20 +3386,9 @@
       <c r="CG10" s="5"/>
       <c r="CH10" s="5"/>
       <c r="CI10" s="5"/>
-      <c r="CJ10" s="5"/>
-      <c r="CK10" s="5"/>
-      <c r="CL10" s="5"/>
-      <c r="CM10" s="5"/>
-      <c r="CN10" s="5"/>
-      <c r="CO10" s="5"/>
-      <c r="CP10" s="5"/>
-      <c r="CQ10" s="5"/>
-      <c r="CR10" s="5"/>
-      <c r="CS10" s="5"/>
-      <c r="CT10" s="5"/>
-      <c r="CU10" s="36"/>
+      <c r="CJ10" s="33"/>
     </row>
-    <row r="11" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
@@ -3480,9 +3397,9 @@
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="CU11" s="37"/>
+      <c r="CJ11" s="34"/>
     </row>
-    <row r="12" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
@@ -3491,9 +3408,9 @@
       <c r="G12" s="24"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="CU12" s="37"/>
+      <c r="CJ12" s="34"/>
     </row>
-    <row r="13" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
@@ -3502,9 +3419,9 @@
       <c r="G13" s="24"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="CU13" s="37"/>
+      <c r="CJ13" s="34"/>
     </row>
-    <row r="14" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
@@ -3513,9 +3430,9 @@
       <c r="G14" s="24"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="CU14" s="37"/>
+      <c r="CJ14" s="34"/>
     </row>
-    <row r="15" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
@@ -3524,9 +3441,9 @@
       <c r="G15" s="24"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="CU15" s="37"/>
+      <c r="CJ15" s="34"/>
     </row>
-    <row r="16" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shakh\OneDrive\Документы\GitHub\Uzpar-Oylik\myproject\telegram_bot\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vazifalar\Upwork + WORK\UzparAvtotrans OYLIK\2\myproject\telegram_bot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D3F21-CCC7-4CB3-8ECD-BF2C4B910ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -338,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +544,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1700,10 +1701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BZ2" sqref="BZ2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/myproject/telegram_bot/reports/oylik.xlsx
+++ b/myproject/telegram_bot/reports/oylik.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shakh\OneDrive\Документы\GitHub\Uzpar-Oylik\myproject\telegram_bot\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaxriyor\Documents\GitHub\Uzpar-Oylik\myproject\telegram_bot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6300,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK1175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13660,7 +13660,7 @@
       <c r="BS112" s="27"/>
       <c r="BY112" s="27"/>
     </row>
-    <row r="113" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -13725,7 +13725,7 @@
       <c r="BS113" s="27"/>
       <c r="BY113" s="27"/>
     </row>
-    <row r="114" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>1259</v>
       </c>
       <c r="C114" s="1">
-        <v>998997052367</v>
+        <v>998997052366</v>
       </c>
       <c r="D114">
         <v>121212</v>
@@ -13848,15 +13848,39 @@
       <c r="BB114" s="27"/>
       <c r="BD114" s="27"/>
       <c r="BE114" s="27"/>
+      <c r="BG114" s="1">
+        <v>4326</v>
+      </c>
       <c r="BH114" s="27"/>
-      <c r="BI114" s="27"/>
-      <c r="BM114" s="27"/>
+      <c r="BI114" s="27">
+        <v>346</v>
+      </c>
+      <c r="BJ114" s="1">
+        <v>3465</v>
+      </c>
+      <c r="BK114" s="1">
+        <v>345</v>
+      </c>
+      <c r="BM114" s="27">
+        <v>345</v>
+      </c>
       <c r="BN114" s="27"/>
-      <c r="BR114" s="27"/>
+      <c r="BO114" s="1">
+        <v>234</v>
+      </c>
+      <c r="BR114" s="27">
+        <v>324235</v>
+      </c>
       <c r="BS114" s="27"/>
+      <c r="BX114" s="1">
+        <v>2345</v>
+      </c>
       <c r="BY114" s="27"/>
-    </row>
-    <row r="115" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BZ114" s="1">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -13909,7 +13933,7 @@
       <c r="BS115" s="27"/>
       <c r="BY115" s="27"/>
     </row>
-    <row r="116" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -13992,7 +14016,7 @@
       <c r="BS116" s="27"/>
       <c r="BY116" s="27"/>
     </row>
-    <row r="117" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -14045,7 +14069,7 @@
       <c r="BS117" s="27"/>
       <c r="BY117" s="27"/>
     </row>
-    <row r="118" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25">
         <v>117</v>
       </c>
@@ -14098,7 +14122,7 @@
       <c r="BS118" s="27"/>
       <c r="BY118" s="27"/>
     </row>
-    <row r="119" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -14159,7 +14183,7 @@
       <c r="BS119" s="27"/>
       <c r="BY119" s="27"/>
     </row>
-    <row r="120" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -14212,7 +14236,7 @@
       <c r="BS120" s="27"/>
       <c r="BY120" s="27"/>
     </row>
-    <row r="121" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>120</v>
       </c>
@@ -14265,7 +14289,7 @@
       <c r="BS121" s="27"/>
       <c r="BY121" s="27"/>
     </row>
-    <row r="122" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -14318,7 +14342,7 @@
       <c r="BS122" s="27"/>
       <c r="BY122" s="27"/>
     </row>
-    <row r="123" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -14371,7 +14395,7 @@
       <c r="BS123" s="27"/>
       <c r="BY123" s="27"/>
     </row>
-    <row r="124" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -14424,7 +14448,7 @@
       <c r="BS124" s="27"/>
       <c r="BY124" s="27"/>
     </row>
-    <row r="125" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -14477,7 +14501,7 @@
       <c r="BS125" s="27"/>
       <c r="BY125" s="27"/>
     </row>
-    <row r="126" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -14553,7 +14577,7 @@
       </c>
       <c r="BY126" s="27"/>
     </row>
-    <row r="127" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25">
         <v>126</v>
       </c>
@@ -14606,7 +14630,7 @@
       <c r="BS127" s="27"/>
       <c r="BY127" s="27"/>
     </row>
-    <row r="128" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>127</v>
       </c>
